--- a/CSV-Reconcile_Process/Examples/Cotton/Reconciled/matched_reconciliation.xlsx
+++ b/CSV-Reconcile_Process/Examples/Cotton/Reconciled/matched_reconciliation.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/Cotton/Reconciled/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9922D32B-92DE-214C-994F-196167B6FECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="21520" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfect Matches" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Perfect Matches'!$A$1:$E$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -157,8 +166,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +243,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -280,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,9 +329,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,6 +381,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,14 +574,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -562,7 +623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -579,7 +640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -596,7 +657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -613,7 +674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -630,7 +691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -647,7 +708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -664,7 +725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -681,7 +742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -698,7 +759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -715,7 +776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -732,7 +793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -749,7 +810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -766,7 +827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -783,7 +844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -800,7 +861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -817,7 +878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -834,7 +895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -851,7 +912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -868,7 +929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -886,27 +947,28 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
